--- a/carriers_source_analyses/methanol.xlsx
+++ b/carriers_source_analyses/methanol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8013B9-17BC-A343-B66F-786BA8909EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB7F63E-C19A-A340-8E72-35F87BF8401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27160" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27160" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>Source</t>
   </si>
@@ -353,21 +353,17 @@
   <si>
     <t>DE Statista</t>
   </si>
-  <si>
-    <t>http://ec.europa.eu/energy/observatory/oil/bulletin_en.htmhttps://de.statista.com/statistik/daten/studie/730823/umfrage/durchschnittlicher-preis-fuer-methanol-auf-dem-europaeischen-markt/</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1238,7 +1234,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1420,7 +1416,7 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,6 +1428,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1459,15 +1462,6 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="183" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2566,10 +2560,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
@@ -2594,30 +2588,30 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145"/>
     </row>
     <row r="4" spans="2:10" ht="82" customHeight="1">
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="33"/>
@@ -2686,7 +2680,7 @@
       <c r="D10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="139">
         <f>'Research data'!G6</f>
         <v>0</v>
       </c>
@@ -2703,34 +2697,34 @@
     <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="23"/>
       <c r="C11" s="103" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="150">
-        <f>'Research data'!G7</f>
-        <v>1.2897989949748745E-2</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="139">
+        <f>'Research data'!G8</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="149" t="s">
-        <v>90</v>
+      <c r="I11" s="113" t="s">
+        <v>58</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="23"/>
-      <c r="C12" s="103" t="s">
-        <v>66</v>
+      <c r="C12" s="117" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="148">
-        <f>'Research data'!G8</f>
-        <v>19.899999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="E12" s="139">
+        <f>'Research data'!G9</f>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="103"/>
@@ -2740,64 +2734,21 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="148">
-        <f>'Research data'!G9</f>
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="148">
-        <f>'Research data'!G10</f>
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+    <row r="13" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" xr:uid="{61FEA05D-0BD9-5A40-8944-4526D30D2870}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3315,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -3384,15 +3335,15 @@
     </row>
     <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="99"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="108"/>
       <c r="K4" s="108"/>
       <c r="L4" s="108"/>
@@ -3412,13 +3363,13 @@
     </row>
     <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="99"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
       <c r="L5" s="108"/>
@@ -3438,13 +3389,13 @@
     </row>
     <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="99"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
       <c r="J6" s="108"/>
       <c r="K6" s="108"/>
       <c r="L6" s="108"/>
@@ -3464,13 +3415,13 @@
     </row>
     <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="99"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
       <c r="J7" s="108"/>
       <c r="K7" s="108"/>
       <c r="L7" s="108"/>
@@ -3490,11 +3441,11 @@
     </row>
     <row r="8" spans="2:25" customFormat="1" ht="18">
       <c r="B8" s="99"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144">
+      <c r="C8" s="135"/>
+      <c r="D8" s="135">
         <v>16</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="135" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="126">
@@ -3503,10 +3454,10 @@
       <c r="G8" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="146" t="s">
+      <c r="H8" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="144"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="108"/>
       <c r="K8" s="108"/>
       <c r="L8" s="108"/>
@@ -3526,19 +3477,19 @@
     </row>
     <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="99"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="126">
         <v>43.2</v>
       </c>
       <c r="G9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="146" t="s">
+      <c r="H9" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="144"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="108"/>
       <c r="K9" s="108"/>
       <c r="L9" s="108"/>
@@ -3558,9 +3509,9 @@
     </row>
     <row r="10" spans="2:25" customFormat="1" ht="18">
       <c r="B10" s="99"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="147"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="138"/>
       <c r="F10" s="126">
         <f>F8/1000</f>
         <v>0.745</v>
@@ -3568,10 +3519,10 @@
       <c r="G10" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="146" t="s">
+      <c r="H10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="144"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="108"/>
       <c r="K10" s="108"/>
       <c r="L10" s="108"/>
@@ -3591,9 +3542,9 @@
     </row>
     <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="99"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="147"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="126">
         <f>F9*F10</f>
         <v>32.184000000000005</v>
@@ -3601,10 +3552,10 @@
       <c r="G11" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="146" t="s">
+      <c r="H11" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="144"/>
+      <c r="I11" s="135"/>
       <c r="J11" s="108"/>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
@@ -3624,19 +3575,19 @@
     </row>
     <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="99"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="126">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="G12" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="H12" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="144"/>
+      <c r="I12" s="135"/>
       <c r="J12" s="108"/>
       <c r="K12" s="108"/>
       <c r="L12" s="108"/>
@@ -3656,13 +3607,13 @@
     </row>
     <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="99"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="126"/>
       <c r="G13" s="126"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
       <c r="J13" s="108"/>
       <c r="K13" s="108"/>
       <c r="L13" s="108"/>
@@ -3682,9 +3633,9 @@
     </row>
     <row r="14" spans="2:25" customFormat="1" ht="18">
       <c r="B14" s="99"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144" t="s">
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="126">
@@ -3693,10 +3644,10 @@
       <c r="G14" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="146" t="s">
+      <c r="H14" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="144"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="108"/>
       <c r="K14" s="108"/>
       <c r="L14" s="108"/>
@@ -3716,19 +3667,19 @@
     </row>
     <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="99"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="126">
         <v>43.1</v>
       </c>
       <c r="G15" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="146" t="s">
+      <c r="H15" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="144"/>
+      <c r="I15" s="135"/>
       <c r="J15" s="108"/>
       <c r="K15" s="108"/>
       <c r="L15" s="108"/>
@@ -3748,9 +3699,9 @@
     </row>
     <row r="16" spans="2:25" customFormat="1" ht="18">
       <c r="B16" s="99"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="138"/>
       <c r="F16" s="126">
         <f>F14/1000</f>
         <v>0.83199999999999996</v>
@@ -3758,10 +3709,10 @@
       <c r="G16" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="146" t="s">
+      <c r="H16" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="144"/>
+      <c r="I16" s="135"/>
       <c r="J16" s="108"/>
       <c r="K16" s="108"/>
       <c r="L16" s="108"/>
@@ -3781,9 +3732,9 @@
     </row>
     <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="99"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="147"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="138"/>
       <c r="F17" s="126">
         <f>F15*F16</f>
         <v>35.859200000000001</v>
@@ -3791,10 +3742,10 @@
       <c r="G17" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="146" t="s">
+      <c r="H17" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="144"/>
+      <c r="I17" s="135"/>
       <c r="J17" s="108"/>
       <c r="K17" s="108"/>
       <c r="L17" s="108"/>
@@ -3814,19 +3765,19 @@
     </row>
     <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="99"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="126">
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="G18" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="144"/>
+      <c r="I18" s="135"/>
       <c r="J18" s="108"/>
       <c r="K18" s="108"/>
       <c r="L18" s="108"/>
@@ -3846,13 +3797,13 @@
     </row>
     <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="99"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="108"/>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
@@ -3872,15 +3823,15 @@
     </row>
     <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="99"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144" t="s">
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="126"/>
       <c r="G20" s="126"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="144"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="135"/>
       <c r="J20" s="108"/>
       <c r="K20" s="108"/>
       <c r="L20" s="108"/>
@@ -3900,8 +3851,8 @@
     </row>
     <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="99"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="126"/>
       <c r="F21" s="126">
         <v>46</v>
@@ -3909,10 +3860,10 @@
       <c r="G21" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="146" t="s">
+      <c r="H21" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="144"/>
+      <c r="I21" s="135"/>
       <c r="J21" s="108"/>
       <c r="K21" s="108"/>
       <c r="L21" s="108"/>
@@ -3932,8 +3883,8 @@
     </row>
     <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="99"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="126"/>
       <c r="F22" s="127" t="e">
         <f>#REF!</f>
@@ -3942,10 +3893,10 @@
       <c r="G22" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="146" t="s">
+      <c r="H22" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="144"/>
+      <c r="I22" s="135"/>
       <c r="J22" s="108"/>
       <c r="K22" s="108"/>
       <c r="L22" s="108"/>
@@ -3965,8 +3916,8 @@
     </row>
     <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="99"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="126"/>
       <c r="F23" s="126" t="e">
         <f>F21*F22</f>
@@ -3975,10 +3926,10 @@
       <c r="G23" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="146" t="s">
+      <c r="H23" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="144"/>
+      <c r="I23" s="135"/>
       <c r="J23" s="108"/>
       <c r="K23" s="108"/>
       <c r="L23" s="108"/>
@@ -3998,19 +3949,19 @@
     </row>
     <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="99"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="126">
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="G24" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="144"/>
+      <c r="I24" s="135"/>
       <c r="J24" s="108"/>
       <c r="K24" s="108"/>
       <c r="L24" s="108"/>
@@ -4030,13 +3981,13 @@
     </row>
     <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="99"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="108"/>
       <c r="K25" s="108"/>
       <c r="L25" s="108"/>
@@ -4056,21 +4007,21 @@
     </row>
     <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="99"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144" t="s">
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="144">
+      <c r="F26" s="135">
         <v>19.899999999999999</v>
       </c>
       <c r="G26" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="146" t="s">
+      <c r="H26" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="144"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="108"/>
       <c r="K26" s="108"/>
       <c r="L26" s="108"/>
@@ -4090,19 +4041,19 @@
     </row>
     <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="99"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144">
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135">
         <v>793</v>
       </c>
       <c r="G27" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="146" t="s">
+      <c r="H27" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="144"/>
+      <c r="I27" s="135"/>
       <c r="J27" s="108"/>
       <c r="K27" s="108"/>
       <c r="L27" s="108"/>
@@ -4122,18 +4073,18 @@
     </row>
     <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="99"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144">
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135">
         <f>F27/1000</f>
         <v>0.79300000000000004</v>
       </c>
       <c r="G28" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="144"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="135"/>
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
       <c r="L28" s="108"/>
@@ -4153,20 +4104,20 @@
     </row>
     <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="99"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144">
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135">
         <f>F27*F26</f>
         <v>15780.699999999999</v>
       </c>
       <c r="G29" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="146" t="s">
+      <c r="H29" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="135"/>
       <c r="J29" s="108"/>
       <c r="K29" s="108"/>
       <c r="L29" s="108"/>
@@ -4186,29 +4137,29 @@
     </row>
     <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="99"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="144">
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="135">
         <v>6.9099999999999995E-2</v>
       </c>
       <c r="G30" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="147"/>
+      <c r="I30" s="138"/>
     </row>
     <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="99"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
     </row>
     <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="99"/>
